--- a/pred_ohlcv/54_21/2019-10-18 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XLM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-19500.85079209</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-155087.41562855</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9335.98723015</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>106124.03591641</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>44660.52321640999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>44495.71121641</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>44495.71121641</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64708.20718359</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2112.523283589995</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>248549.77236904</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>387.2591711500136</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>59182.19497115001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>90702.31597115</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>108862.09127115</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>82266.70647115001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3089080.908464809</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3070728.398164809</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3057378.903064809</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2407378.903064809</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2334499.752864809</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2323159.45656481</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>847339.7029648097</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>785331.2061648098</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>775960.7717648098</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-618015.4412376307</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-685136.6616465707</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-678380.2518465706</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-678380.2518465706</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-819082.9643465707</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-755708.8774465707</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-907239.7910465708</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-698410.6991465706</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-699758.6991465706</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-607483.6960555107</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-609281.6710555106</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-606214.0071430607</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-627294.9361430608</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-630092.0361430608</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-631935.0317430608</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-639704.2617430608</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-631944.0024430607</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-626985.5864430608</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-628240.0239430608</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-483443.203093711</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XLM ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-516008.36345557</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-509194.02745557</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-483798.87335557</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-482777.46325557</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-510657.93835557</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-155087.41562855</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9335.98723015</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>106124.03591641</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>44660.52321640999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>44495.71121641</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>44495.71121641</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64708.20718359</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2112.523283589995</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>248549.77236904</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>387.2591711500136</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>59182.19497115001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>90702.31597115</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>108862.09127115</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>82266.70647115001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3089093.980264809</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3089093.980264809</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3089080.908464809</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3070728.398164809</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3057378.903064809</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2407378.903064809</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2334499.752864809</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2339246.256864809</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2323159.45656481</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>503159.4565648097</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>587067.6966648097</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>844552.4695648097</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>847339.7029648097</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>785331.2061648098</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>788987.3715648098</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>775960.7717648098</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1044039.22823519</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-685136.6616465707</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-698410.6991465706</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-699758.6991465706</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-607343.6960555107</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-607493.6960555107</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-607483.6960555107</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-609281.6710555106</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-606214.0071430607</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-609773.6638430607</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-626392.9754430607</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-948772.1515430609</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-949622.1515430609</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-947783.9515430609</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-496765.203893711</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-483443.203093711</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
